--- a/test/pivot_filtering/LakeVarese_MetaPhlAn_filtered_genus_scaling.xlsx
+++ b/test/pivot_filtering/LakeVarese_MetaPhlAn_filtered_genus_scaling.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
   <si>
     <t xml:space="preserve">genus</t>
   </si>
@@ -83,6 +83,9 @@
     <t xml:space="preserve">Limnohabitans</t>
   </si>
   <si>
+    <t xml:space="preserve">Actinobacteria_noname</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thiomonas</t>
   </si>
   <si>
@@ -95,6 +98,9 @@
     <t xml:space="preserve">Arcobacter</t>
   </si>
   <si>
+    <t xml:space="preserve">Alphaproteobacteria_noname</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thauera</t>
   </si>
   <si>
@@ -188,6 +194,9 @@
     <t xml:space="preserve">Akkermansia</t>
   </si>
   <si>
+    <t xml:space="preserve">Peptostreptococcaceae_noname</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sphingopyxis</t>
   </si>
   <si>
@@ -209,6 +218,9 @@
     <t xml:space="preserve">Sphingobium</t>
   </si>
   <si>
+    <t xml:space="preserve">Flavobacteriales_noname</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pedobacter</t>
   </si>
   <si>
@@ -242,6 +254,9 @@
     <t xml:space="preserve">Polaromonas</t>
   </si>
   <si>
+    <t xml:space="preserve">Lachnospiraceae_noname</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dialister</t>
   </si>
   <si>
@@ -272,6 +287,9 @@
     <t xml:space="preserve">Phascolarctobacterium</t>
   </si>
   <si>
+    <t xml:space="preserve">Bacteroidales_noname</t>
+  </si>
+  <si>
     <t xml:space="preserve">Oscillibacter</t>
   </si>
   <si>
@@ -314,6 +332,9 @@
     <t xml:space="preserve">Aminomonas</t>
   </si>
   <si>
+    <t xml:space="preserve">Erysipelotrichaceae_noname</t>
+  </si>
+  <si>
     <t xml:space="preserve">Herbaspirillum</t>
   </si>
   <si>
@@ -480,6 +501,9 @@
   </si>
   <si>
     <t xml:space="preserve">Chlorobaculum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhodospirillales_noname</t>
   </si>
   <si>
     <t xml:space="preserve">Actinoplanes</t>
@@ -956,67 +980,67 @@
         <v>22</v>
       </c>
       <c r="B2" t="n">
-        <v>11.8482024373548</v>
+        <v>10.703143438258</v>
       </c>
       <c r="C2" t="n">
-        <v>63.9802174817419</v>
+        <v>40.5449281210431</v>
       </c>
       <c r="D2" t="n">
-        <v>17.3205575626191</v>
+        <v>1.6210622528887</v>
       </c>
       <c r="E2" t="n">
-        <v>6.27476956828386</v>
+        <v>2.93581221050105</v>
       </c>
       <c r="F2" t="n">
-        <v>34.8908948088153</v>
+        <v>2.36291070426107</v>
       </c>
       <c r="G2" t="n">
-        <v>28.9047929690314</v>
+        <v>2.89130983712694</v>
       </c>
       <c r="H2" t="n">
-        <v>72.4968285766064</v>
+        <v>22.210334529672</v>
       </c>
       <c r="I2" t="n">
-        <v>13.7307269639349</v>
+        <v>1.23705735641395</v>
       </c>
       <c r="J2" t="n">
-        <v>40.4897453840159</v>
+        <v>7.34279179051056</v>
       </c>
       <c r="K2" t="n">
-        <v>79.0449133116692</v>
+        <v>45.4619858656381</v>
       </c>
       <c r="L2" t="n">
-        <v>24.6315081032654</v>
+        <v>20.6004566572834</v>
       </c>
       <c r="M2" t="n">
-        <v>3.00925032158686</v>
+        <v>0.595085184897557</v>
       </c>
       <c r="N2" t="n">
-        <v>77.2501236648855</v>
+        <v>34.8312598992571</v>
       </c>
       <c r="O2" t="n">
-        <v>36.7317865070513</v>
+        <v>6.85475033208783</v>
       </c>
       <c r="P2" t="n">
-        <v>53.8072675019254</v>
+        <v>6.88013059547457</v>
       </c>
       <c r="Q2" t="n">
-        <v>38.3963728273914</v>
+        <v>5.89501081136659</v>
       </c>
       <c r="R2" t="n">
-        <v>70.4854582841711</v>
+        <v>25.8543632201677</v>
       </c>
       <c r="S2" t="n">
-        <v>53.6873749755591</v>
+        <v>11.4271525577148</v>
       </c>
       <c r="T2" t="n">
-        <v>49.3314726454982</v>
+        <v>36.4209520119151</v>
       </c>
       <c r="U2" t="n">
-        <v>59.7838676082515</v>
+        <v>33.9935608478951</v>
       </c>
       <c r="V2" t="n">
-        <v>54.5346208568195</v>
+        <v>19.9699034539331</v>
       </c>
     </row>
     <row r="3">
@@ -1024,67 +1048,67 @@
         <v>23</v>
       </c>
       <c r="B3" t="n">
-        <v>14.0344305250146</v>
+        <v>6.32261926505213</v>
       </c>
       <c r="C3" t="n">
-        <v>13.3955922911222</v>
+        <v>33.3363249681541</v>
       </c>
       <c r="D3" t="n">
-        <v>5.88086985285165</v>
+        <v>83.9957691075879</v>
       </c>
       <c r="E3" t="n">
-        <v>0.167419320739808</v>
+        <v>48.2328959988844</v>
       </c>
       <c r="F3" t="n">
-        <v>1.99891746663068</v>
+        <v>81.6516002183439</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>66.0126750328195</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0774202817628053</v>
+        <v>57.9282022717731</v>
       </c>
       <c r="I3" t="n">
-        <v>0.38995637550368</v>
+        <v>67.8283480909948</v>
       </c>
       <c r="J3" t="n">
-        <v>4.6420477057503</v>
+        <v>59.1387413116842</v>
       </c>
       <c r="K3" t="n">
-        <v>0.27622262430279</v>
+        <v>32.6664387038453</v>
       </c>
       <c r="L3" t="n">
-        <v>11.6731402826826</v>
+        <v>12.353174375203</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>76.5921640603832</v>
       </c>
       <c r="N3" t="n">
-        <v>1.28955611188719</v>
+        <v>38.0047982929081</v>
       </c>
       <c r="O3" t="n">
-        <v>1.84757760819869</v>
+        <v>56.3657148721868</v>
       </c>
       <c r="P3" t="n">
-        <v>1.94202340477487</v>
+        <v>82.2811635622854</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.41417084201555</v>
+        <v>63.677583410192</v>
       </c>
       <c r="R3" t="n">
-        <v>0.364657482922615</v>
+        <v>58.1887581749553</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>71.5175438350776</v>
       </c>
       <c r="T3" t="n">
-        <v>0.46144116557224</v>
+        <v>22.8768221717604</v>
       </c>
       <c r="U3" t="n">
-        <v>2.53305521447213</v>
+        <v>38.2860472665189</v>
       </c>
       <c r="V3" t="n">
-        <v>2.21212088895014</v>
+        <v>52.4434518182896</v>
       </c>
     </row>
     <row r="4">
@@ -1092,67 +1116,67 @@
         <v>24</v>
       </c>
       <c r="B4" t="n">
-        <v>14.82499608169</v>
+        <v>12.6780854545421</v>
       </c>
       <c r="C4" t="n">
-        <v>2.71609279123933</v>
+        <v>8.4889259205369</v>
       </c>
       <c r="D4" t="n">
-        <v>3.39593001268167</v>
+        <v>0.550401226874093</v>
       </c>
       <c r="E4" t="n">
-        <v>0.241717194997479</v>
+        <v>0.0783314320554638</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.135372380236082</v>
       </c>
       <c r="G4" t="n">
-        <v>1.28799036283448</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.0237186976464269</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.0351327649486015</v>
       </c>
       <c r="J4" t="n">
-        <v>2.87211104851807</v>
+        <v>0.8418326532228</v>
       </c>
       <c r="K4" t="n">
-        <v>0.877302536482086</v>
+        <v>0.158867010104862</v>
       </c>
       <c r="L4" t="n">
-        <v>10.3920414714148</v>
+        <v>9.76278104611513</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.86167827236825</v>
+        <v>0.58144714800289</v>
       </c>
       <c r="O4" t="n">
-        <v>0.533456284303873</v>
+        <v>0.34478810936481</v>
       </c>
       <c r="P4" t="n">
-        <v>0.46725022071116</v>
+        <v>0.248319144692512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.831239861945985</v>
       </c>
       <c r="R4" t="n">
-        <v>0.921283011891384</v>
+        <v>0.133757901898336</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.111027319186021</v>
+        <v>0.340677576532116</v>
       </c>
       <c r="U4" t="n">
-        <v>11.5800145734661</v>
+        <v>1.44031441940956</v>
       </c>
       <c r="V4" t="n">
-        <v>1.97695178732619</v>
+        <v>0.810051301112859</v>
       </c>
     </row>
     <row r="5">
@@ -1160,22 +1184,22 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>5.73200957613216</v>
+        <v>13.3922475052988</v>
       </c>
       <c r="C5" t="n">
-        <v>3.2322238448844</v>
+        <v>1.72121620284126</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.317831220912363</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.113093602058083</v>
       </c>
       <c r="F5" t="n">
-        <v>0.169466226617355</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.128836044948597</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1184,43 +1208,43 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.520855669218868</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0532441721026978</v>
+        <v>0.504572828819196</v>
       </c>
       <c r="L5" t="n">
-        <v>5.99376623174165</v>
+        <v>8.69133952395678</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1.01212049089409</v>
+        <v>0.839410950783161</v>
       </c>
       <c r="O5" t="n">
-        <v>0.942728407195945</v>
+        <v>0.0995516414995047</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>0.0597455081535606</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.337930492300694</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.0819704024070858</v>
       </c>
       <c r="U5" t="n">
-        <v>4.1409836894999</v>
+        <v>6.58448417225351</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2451383573657</v>
+        <v>0.723935285616783</v>
       </c>
     </row>
     <row r="6">
@@ -1228,19 +1252,19 @@
         <v>26</v>
       </c>
       <c r="B6" t="n">
-        <v>6.15330947505179</v>
+        <v>5.17804460273114</v>
       </c>
       <c r="C6" t="n">
-        <v>2.23145147597467</v>
+        <v>2.04829381049474</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>52.5289220179909</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.0114767352078259</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1252,43 +1276,43 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.82723676484047</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.0306229167462836</v>
       </c>
       <c r="L6" t="n">
-        <v>3.63975873621505</v>
+        <v>5.01286080223863</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.557446668685565</v>
+        <v>0.456354374533129</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0711753597420238</v>
+        <v>0.175928493460412</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.268013084795955</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.887443190138078</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.540754207589454</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>23.9058090623502</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>3.96352989232299</v>
+        <v>2.35459475358077</v>
       </c>
       <c r="V6" t="n">
-        <v>2.22959450010569</v>
+        <v>0.455954261581202</v>
       </c>
     </row>
     <row r="7">
@@ -1296,16 +1320,16 @@
         <v>27</v>
       </c>
       <c r="B7" t="n">
-        <v>5.90398016722626</v>
+        <v>5.55862834718537</v>
       </c>
       <c r="C7" t="n">
-        <v>0.165518926361326</v>
+        <v>1.41409396935556</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0836555074003282</v>
+        <v>24.5770062130031</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1320,43 +1344,43 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.331368325212693</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.796125671131213</v>
+        <v>3.04409668194154</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.04340304450959</v>
+        <v>0.251346779471731</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.0132824827546695</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.0411481584357561</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.325517903034573</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.115097466195059</v>
       </c>
       <c r="T7" t="n">
-        <v>0.00975258321208255</v>
+        <v>17.6494290150756</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0511964200009942</v>
+        <v>2.25369317773172</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>0.816449921334021</v>
       </c>
     </row>
     <row r="8">
@@ -1364,67 +1388,67 @@
         <v>28</v>
       </c>
       <c r="B8" t="n">
-        <v>0.384526745428228</v>
+        <v>2.54143769829934</v>
       </c>
       <c r="C8" t="n">
-        <v>7.27129707181828</v>
+        <v>3.12679654774032</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>6.64505035201638</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>4.97953389909525</v>
       </c>
       <c r="F8" t="n">
-        <v>1.35949907954509</v>
+        <v>11.5693046752584</v>
       </c>
       <c r="G8" t="n">
-        <v>31.2412453074848</v>
+        <v>23.9844516021137</v>
       </c>
       <c r="H8" t="n">
-        <v>22.5494488988589</v>
+        <v>11.4355134027648</v>
       </c>
       <c r="I8" t="n">
-        <v>22.8071752861123</v>
+        <v>23.1622428685138</v>
       </c>
       <c r="J8" t="n">
-        <v>1.44984052038502</v>
+        <v>22.6705355169445</v>
       </c>
       <c r="K8" t="n">
-        <v>16.15985845156</v>
+        <v>9.81944184056835</v>
       </c>
       <c r="L8" t="n">
-        <v>0.464865388896819</v>
+        <v>3.25710562888773</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11752704276242</v>
+        <v>3.62489289159881</v>
       </c>
       <c r="N8" t="n">
-        <v>3.09697280793445</v>
+        <v>16.9062643089375</v>
       </c>
       <c r="O8" t="n">
-        <v>1.75276915771223</v>
+        <v>24.8928668327544</v>
       </c>
       <c r="P8" t="n">
-        <v>23.8193518292416</v>
+        <v>4.67399017831883</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.84165837594199</v>
+        <v>20.8915400225179</v>
       </c>
       <c r="R8" t="n">
-        <v>0.165708780656602</v>
+        <v>5.09370254635117</v>
       </c>
       <c r="S8" t="n">
-        <v>0.361489840119121</v>
+        <v>7.17592935326529</v>
       </c>
       <c r="T8" t="n">
-        <v>0.150295728748877</v>
+        <v>3.10215955006332</v>
       </c>
       <c r="U8" t="n">
-        <v>0.384203127015063</v>
+        <v>4.60877076210112</v>
       </c>
       <c r="V8" t="n">
-        <v>0.231477493633343</v>
+        <v>10.7713611777787</v>
       </c>
     </row>
     <row r="9">
@@ -1432,19 +1456,19 @@
         <v>29</v>
       </c>
       <c r="B9" t="n">
-        <v>4.15194318982835</v>
+        <v>5.33339524882062</v>
       </c>
       <c r="C9" t="n">
-        <v>1.16092696295398</v>
+        <v>0.104891062208522</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.0391403791691294</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0274402608935574</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1462,37 +1486,37 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>3.23811523507435</v>
+        <v>0.665836306617171</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.27070842883874</v>
+        <v>0.470459345549366</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0.827979913719155</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0623623467766411</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.00720023843017955</v>
       </c>
       <c r="U9" t="n">
-        <v>4.26502974929499</v>
+        <v>0.0291106729645237</v>
       </c>
       <c r="V9" t="n">
-        <v>1.08030122427394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1500,10 +1524,10 @@
         <v>30</v>
       </c>
       <c r="B10" t="n">
-        <v>2.75891385476642</v>
+        <v>0.347364499714244</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0799111451362042</v>
+        <v>4.60789645186428</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1512,55 +1536,55 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.0920691471254148</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3.12502220577758</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>6.90831327847922</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2.05479171210774</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.26292773564428</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>9.29420029368388</v>
       </c>
       <c r="L10" t="n">
-        <v>1.97025514312675</v>
+        <v>0.388788183626098</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.220993176306984</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1.39639213060743</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.327095306502306</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>3.04568990199835</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0270545282016802</v>
+        <v>0.436280971739031</v>
       </c>
       <c r="R10" t="n">
-        <v>0.00809865194257211</v>
+        <v>0.0607826792668951</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.0769417307697695</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.110961891685149</v>
       </c>
       <c r="U10" t="n">
-        <v>0.258989491642901</v>
+        <v>0.218460813905849</v>
       </c>
       <c r="V10" t="n">
-        <v>1.11010754064255</v>
+        <v>0.0847641943225914</v>
       </c>
     </row>
     <row r="11">
@@ -1568,10 +1592,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="n">
-        <v>2.25051241420218</v>
+        <v>3.75068232866492</v>
       </c>
       <c r="C11" t="n">
-        <v>0.610378732938377</v>
+        <v>0.735691470260827</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1580,13 +1604,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.00185833256923871</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.028538728916361</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1595,28 +1619,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0203688093865596</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1.43451936993927</v>
+        <v>2.70818385426407</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>3.59207638893206</v>
+        <v>0.122059554010627</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>0.105870641667758</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0672160843045126</v>
+        <v>0.0228747716773719</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1625,10 +1649,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0.544744768863378</v>
+        <v>2.4251282846199</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0776604940246539</v>
+        <v>0.395592942812557</v>
       </c>
     </row>
     <row r="12">
@@ -1636,10 +1660,10 @@
         <v>32</v>
       </c>
       <c r="B12" t="n">
-        <v>2.131171395524</v>
+        <v>2.49228107617942</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0664607543707045</v>
+        <v>0.0506405223855677</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1666,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1.92985695362819</v>
+        <v>1.64781447849681</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1681,10 +1705,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>0.00415369277098881</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.00297061967126343</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1693,10 +1717,10 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0.977756093108137</v>
+        <v>0.147263390532352</v>
       </c>
       <c r="V12" t="n">
-        <v>0.44884484116925</v>
+        <v>0.406507647102176</v>
       </c>
     </row>
     <row r="13">
@@ -1704,10 +1728,10 @@
         <v>33</v>
       </c>
       <c r="B13" t="n">
-        <v>1.98217830102307</v>
+        <v>2.03301364119534</v>
       </c>
       <c r="C13" t="n">
-        <v>0.115784128507249</v>
+        <v>0.386803340589803</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1722,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.00874320613368922</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1731,16 +1755,16 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.0117149413622666</v>
       </c>
       <c r="L13" t="n">
-        <v>1.28963638462876</v>
+        <v>1.19975415149467</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.61962907429946</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1752,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.0246551430628429</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1761,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.240662093190575</v>
+        <v>0.309746009881333</v>
       </c>
       <c r="V13" t="n">
-        <v>0.373454002427711</v>
+        <v>0.0284383120940531</v>
       </c>
     </row>
     <row r="14">
@@ -1772,10 +1796,10 @@
         <v>34</v>
       </c>
       <c r="B14" t="n">
-        <v>1.7813226955271</v>
+        <v>1.92520622924961</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.0421168701028484</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1802,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.531156418574447</v>
+        <v>1.61402762515804</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1829,10 +1853,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.295202025071386</v>
+        <v>0.555959535158682</v>
       </c>
       <c r="V14" t="n">
-        <v>0.524290370399539</v>
+        <v>0.164361427715418</v>
       </c>
     </row>
     <row r="15">
@@ -1840,10 +1864,10 @@
         <v>35</v>
       </c>
       <c r="B15" t="n">
-        <v>1.77255300823744</v>
+        <v>1.79061244000731</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.0733736044148909</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1870,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.597593597867385</v>
+        <v>1.07858188519437</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1897,10 +1921,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.108761434058781</v>
+        <v>0.13684229267774</v>
       </c>
       <c r="V15" t="n">
-        <v>0.430277420238707</v>
+        <v>0.136754235305804</v>
       </c>
     </row>
     <row r="16">
@@ -1908,7 +1932,7 @@
         <v>36</v>
       </c>
       <c r="B16" t="n">
-        <v>1.62018255374897</v>
+        <v>1.60916834607255</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1938,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0626251101602725</v>
+        <v>0.444230403319485</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1965,10 +1989,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.167854111872497</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>0.19198864710538</v>
       </c>
     </row>
     <row r="17">
@@ -1976,10 +2000,10 @@
         <v>37</v>
       </c>
       <c r="B17" t="n">
-        <v>1.15330546801451</v>
+        <v>1.60124619742036</v>
       </c>
       <c r="C17" t="n">
-        <v>0.252186914858552</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -2006,13 +2030,13 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1.27125807050355</v>
+        <v>0.499794854619764</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0.334294825967761</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -2033,10 +2057,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.0618425768437774</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>0.157562267887298</v>
       </c>
     </row>
     <row r="18">
@@ -2044,10 +2068,10 @@
         <v>38</v>
       </c>
       <c r="B18" t="n">
-        <v>1.18257973746579</v>
+        <v>1.46360145014621</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0174696840060137</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2074,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.323623964834454</v>
+        <v>0.0523762435538106</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2104,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0.177443290748584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2112,10 +2136,10 @@
         <v>39</v>
       </c>
       <c r="B19" t="n">
-        <v>1.16128519652743</v>
+        <v>1.04184528560794</v>
       </c>
       <c r="C19" t="n">
-        <v>0.045731328602699</v>
+        <v>0.15981346638788</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2124,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.242891540107258</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2136,19 +2160,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.201459902146423</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.413749560942197</v>
+        <v>1.06321126062753</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0870538628292217</v>
+        <v>0.150729984805873</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2157,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.182784657283765</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2169,10 +2193,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0.192384612132278</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0.256033523081984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2180,10 +2204,10 @@
         <v>40</v>
       </c>
       <c r="B20" t="n">
-        <v>1.16098753090141</v>
+        <v>1.06829036929417</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0210459055507231</v>
+        <v>0.0110707201413201</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2210,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.886519208200357</v>
+        <v>0.270661521530894</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2237,10 +2261,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0.225802040391393</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0.294098103251814</v>
+        <v>0.0649775377388418</v>
       </c>
     </row>
     <row r="21">
@@ -2248,10 +2272,10 @@
         <v>41</v>
       </c>
       <c r="B21" t="n">
-        <v>1.07766405297166</v>
+        <v>1.04905382034759</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0389586612525415</v>
+        <v>0.0289804177612457</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2260,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.0164493064233163</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2272,19 +2296,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.03653463615461</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.450542726596453</v>
+        <v>0.346037679115141</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>0.039251661713743</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -2293,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.0280630031301042</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2305,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0.254513785264099</v>
+        <v>0.109391350549135</v>
       </c>
       <c r="V21" t="n">
-        <v>0.16934909841362</v>
+        <v>0.0937563084988096</v>
       </c>
     </row>
     <row r="22">
@@ -2316,67 +2340,67 @@
         <v>42</v>
       </c>
       <c r="B22" t="n">
-        <v>0.57484956723425</v>
+        <v>1.04878492235157</v>
       </c>
       <c r="C22" t="n">
-        <v>0.707110778526024</v>
+        <v>0.013337008865902</v>
       </c>
       <c r="D22" t="n">
-        <v>49.4754398988914</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>32.862707925742</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.198866506146166</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.114461351284288</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0508407333212517</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.42678461696754</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.180170903181883</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.385299102495212</v>
+        <v>0.741436555480723</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0.322949627317995</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>2.83762741438526</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.59077333433514</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.00130208246567</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.1984742357886</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>37.1129882533428</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>21.5887012384422</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>2.13033009307523</v>
+        <v>0.128392753876704</v>
       </c>
       <c r="V22" t="n">
-        <v>22.6489994511809</v>
+        <v>0.107695086820965</v>
       </c>
     </row>
     <row r="23">
@@ -2384,52 +2408,52 @@
         <v>43</v>
       </c>
       <c r="B23" t="n">
-        <v>0.832616550689651</v>
+        <v>0.973514167925144</v>
       </c>
       <c r="C23" t="n">
-        <v>0.239575195517254</v>
+        <v>0.0246885081412411</v>
       </c>
       <c r="D23" t="n">
-        <v>0.359655256752694</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.153577821716294</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.50861126648866</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.188601090184339</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0181224193919683</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.47823770355323</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.599547852127068</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>2.92419804052339</v>
+        <v>0.376809486150548</v>
       </c>
       <c r="M23" t="n">
-        <v>0.291612730165762</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0.70073808176891</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0.401099932634648</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.735669929424998</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2438,13 +2462,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0.0355738376496437</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0.564310505048968</v>
+        <v>0.144718469917278</v>
       </c>
       <c r="V23" t="n">
-        <v>0.0331150909379774</v>
+        <v>0.0620135446473489</v>
       </c>
     </row>
     <row r="24">
@@ -2452,67 +2476,67 @@
         <v>44</v>
       </c>
       <c r="B24" t="n">
-        <v>0.66446981802212</v>
+        <v>0.51929374148188</v>
       </c>
       <c r="C24" t="n">
-        <v>0.433703894236254</v>
+        <v>0.448103442241877</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>4.63049574329225</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>15.3756625081787</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.0134678058177245</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.0114494240209116</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.0155757116134487</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.440095979705546</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.103623708480237</v>
       </c>
       <c r="L24" t="n">
-        <v>2.70672741294233</v>
+        <v>0.322243259639898</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0842564165868136</v>
+        <v>0.145614555288984</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>0.529547547527124</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>0.331272330133863</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>0.307260726579081</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>7.40888549351395</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>7.89935769511347</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>15.9387305839253</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.2113218589267</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>8.29378338497624</v>
       </c>
     </row>
     <row r="25">
@@ -2520,52 +2544,52 @@
         <v>45</v>
       </c>
       <c r="B25" t="n">
-        <v>0.95583867118401</v>
+        <v>0.752149063810942</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.151821288894554</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.0336607848025086</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.0718553309966669</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.10216744883408</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.0188655282162748</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.00555203593157611</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.133180481303879</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0588349319191727</v>
+        <v>0.108727654492853</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.911169776649286</v>
+        <v>2.44564054862434</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.0576669924081505</v>
       </c>
       <c r="N25" t="n">
-        <v>0.220576416018444</v>
+        <v>0.315955355013812</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>0.0748517879983855</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>0.112947704905706</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2574,13 +2598,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>0.0262638223518666</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.320871235969365</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>0.0121263366006684</v>
       </c>
     </row>
     <row r="26">
@@ -2588,10 +2612,10 @@
         <v>46</v>
       </c>
       <c r="B26" t="n">
-        <v>0.841626660215718</v>
+        <v>0.600252722747343</v>
       </c>
       <c r="C26" t="n">
-        <v>0.135168515198704</v>
+        <v>0.274842660899731</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2618,16 +2642,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0.896347769829945</v>
+        <v>2.263759917567</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>0.0379903229287566</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0376031186844982</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -2645,10 +2669,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0.243616413211365</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0.546932232741938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2656,67 +2680,67 @@
         <v>47</v>
       </c>
       <c r="B27" t="n">
-        <v>0.700201141822444</v>
+        <v>0.863462491935646</v>
       </c>
       <c r="C27" t="n">
-        <v>0.256839167664501</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1.87703841458619</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.399237352898873</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0217109756520454</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.334279173637069</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0678529504441625</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.17727308046666</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>3.44312253753072</v>
+        <v>0.0106696807054236</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0412942386709587</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>4.71786791095201</v>
+        <v>0.762052953176738</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0499399501311749</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0.193379021995032</v>
+        <v>0.0994555621336486</v>
       </c>
       <c r="O27" t="n">
-        <v>2.47286059789511</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0.765132019710602</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>5.51905711637379</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>4.81509850496704</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>6.65031321912554</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.93813547995206</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>3.37156907474412</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>4.94084813463048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2724,10 +2748,10 @@
         <v>48</v>
       </c>
       <c r="B28" t="n">
-        <v>0.748903817710487</v>
+        <v>0.760288399306078</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0212832653877613</v>
+        <v>0.0856576915282217</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2754,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1.02905162053129</v>
+        <v>0.749656631044302</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -2763,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>0.00701735512484864</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -2781,10 +2805,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0.125850494777841</v>
+        <v>0.138522141463185</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>0.200279816969421</v>
       </c>
     </row>
     <row r="29">
@@ -2792,67 +2816,67 @@
         <v>49</v>
       </c>
       <c r="B29" t="n">
-        <v>0.303996744911893</v>
+        <v>0.632530824501241</v>
       </c>
       <c r="C29" t="n">
-        <v>0.549266486895601</v>
+        <v>0.162761647295079</v>
       </c>
       <c r="D29" t="n">
-        <v>2.85763233061563</v>
+        <v>0.175675414033704</v>
       </c>
       <c r="E29" t="n">
-        <v>2.79004763728428</v>
+        <v>0.186793456361011</v>
       </c>
       <c r="F29" t="n">
-        <v>53.6968213020856</v>
+        <v>0.00147032906577129</v>
       </c>
       <c r="G29" t="n">
-        <v>29.9360457205062</v>
+        <v>0.0334375224247078</v>
       </c>
       <c r="H29" t="n">
-        <v>2.44773477920852</v>
+        <v>0.0207876228212886</v>
       </c>
       <c r="I29" t="n">
-        <v>52.0704430161955</v>
+        <v>0.015971256937921</v>
       </c>
       <c r="J29" t="n">
-        <v>23.1516309782117</v>
+        <v>0.624408270847835</v>
       </c>
       <c r="K29" t="n">
-        <v>2.53246398582289</v>
+        <v>0.0237500177574901</v>
       </c>
       <c r="L29" t="n">
-        <v>0.238637963531774</v>
+        <v>3.94576868809224</v>
       </c>
       <c r="M29" t="n">
-        <v>91.5478031502304</v>
+        <v>0.00987572361275469</v>
       </c>
       <c r="N29" t="n">
-        <v>6.62317599844409</v>
+        <v>0.0871925461685032</v>
       </c>
       <c r="O29" t="n">
-        <v>41.8817020242736</v>
+        <v>0.461476111470223</v>
       </c>
       <c r="P29" t="n">
-        <v>8.40165987314587</v>
+        <v>0.0978345205543062</v>
       </c>
       <c r="Q29" t="n">
-        <v>30.3585791175026</v>
+        <v>0.847343094511345</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.76619842899229</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.41549374962234</v>
       </c>
       <c r="T29" t="n">
-        <v>0.33837932169833</v>
+        <v>2.16919717943195</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.91709976420757</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.80927745859222</v>
       </c>
     </row>
     <row r="30">
@@ -2860,10 +2884,10 @@
         <v>50</v>
       </c>
       <c r="B30" t="n">
-        <v>0.596499017188244</v>
+        <v>0.676526673543561</v>
       </c>
       <c r="C30" t="n">
-        <v>0.120816157052459</v>
+        <v>0.0134874262591265</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2890,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.926661635872131</v>
+        <v>0.860642930103485</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -2917,10 +2941,10 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>0.0715595464649695</v>
       </c>
       <c r="V30" t="n">
-        <v>0.0480729396110358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2928,52 +2952,52 @@
         <v>51</v>
       </c>
       <c r="B31" t="n">
-        <v>0.580516662806554</v>
+        <v>0.274617249558232</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0276919809877935</v>
+        <v>0.348075875747612</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.267450969003036</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.30539549417414</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>3.63650157253736</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2.99446474393073</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.749894986491546</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>4.69123920052508</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>4.19853482088956</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1.45652436197588</v>
       </c>
       <c r="L31" t="n">
-        <v>0.388952842877959</v>
+        <v>0.199583842122397</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>18.1037585919047</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>2.98631967970804</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>7.81580854511886</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>1.07428828538698</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>4.66096505833841</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -2982,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>0.249822200240436</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0957058162423561</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0.101095368453925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2996,10 +3020,10 @@
         <v>52</v>
       </c>
       <c r="B32" t="n">
-        <v>0.308816638317832</v>
+        <v>0.538850899577561</v>
       </c>
       <c r="C32" t="n">
-        <v>0.384427992067118</v>
+        <v>0.0765624531512494</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3026,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.304417469555817</v>
+        <v>0.775009503507436</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3053,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0.244270963156091</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>0.0176037157258258</v>
       </c>
     </row>
     <row r="33">
@@ -3064,10 +3088,10 @@
         <v>53</v>
       </c>
       <c r="B33" t="n">
-        <v>0.564820525372961</v>
+        <v>0.524413145637016</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0199382263112113</v>
+        <v>0.0175486958761868</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3094,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0.438558458141045</v>
+        <v>0.325299049812232</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -3121,10 +3145,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0.050506488978175</v>
+        <v>0.0544190534685809</v>
       </c>
       <c r="V33" t="n">
-        <v>0.157235155155549</v>
+        <v>0.0370198731731389</v>
       </c>
     </row>
     <row r="34">
@@ -3132,10 +3156,10 @@
         <v>54</v>
       </c>
       <c r="B34" t="n">
-        <v>0.516965051651283</v>
+        <v>0.278971328647751</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0837880224744953</v>
+        <v>0.243616010066333</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3150,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0455509460392718</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3159,16 +3183,16 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0801184765452551</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0.389756665762163</v>
+        <v>0.254598251191656</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0491107229222745</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -3189,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.138894323529421</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3200,10 +3224,10 @@
         <v>55</v>
       </c>
       <c r="B35" t="n">
-        <v>0.472349553782054</v>
+        <v>0.510233947461882</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0587386476723941</v>
+        <v>0.0126350610308545</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3230,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0790425836134128</v>
+        <v>0.366786494385291</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3257,10 +3281,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.0287183729487613</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>0.0575775685002836</v>
       </c>
     </row>
     <row r="36">
@@ -3268,10 +3292,10 @@
         <v>56</v>
       </c>
       <c r="B36" t="n">
-        <v>0.502047424316511</v>
+        <v>0.467003423485179</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.0530973398082339</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3286,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>0.0139551173415291</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3295,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.046079436306234</v>
       </c>
       <c r="L36" t="n">
-        <v>0.159485767706878</v>
+        <v>0.325971323650145</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>0.0221435031142054</v>
       </c>
       <c r="O36" t="n">
-        <v>0.728208412938565</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3316,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.0898214124539815</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3328,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0.0243099222492667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3336,10 +3360,10 @@
         <v>57</v>
       </c>
       <c r="B37" t="n">
-        <v>0.457237298922576</v>
+        <v>0.426699750772927</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0275653890747065</v>
+        <v>0.037223290909946</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3366,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.304466186094254</v>
+        <v>0.0661069273948329</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -3393,10 +3417,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0924153759796799</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.0669411582297017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3404,10 +3428,10 @@
         <v>58</v>
       </c>
       <c r="B38" t="n">
-        <v>0.352195678971286</v>
+        <v>0.453527496991962</v>
       </c>
       <c r="C38" t="n">
-        <v>0.084357686083387</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3431,10 +3455,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0.00189598652701537</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0.45576757534378</v>
+        <v>0.133385241022394</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -3443,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>0.135895564444205</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -3452,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>0.0329468727176489</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3461,10 +3485,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0359117942646919</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0.0173915754224225</v>
+        <v>0.00890199276465254</v>
       </c>
     </row>
     <row r="39">
@@ -3472,10 +3496,10 @@
         <v>59</v>
       </c>
       <c r="B39" t="n">
-        <v>0.376409632780221</v>
+        <v>0.413048006359231</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>0.0174684732664671</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3502,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0466095481492343</v>
+        <v>0.254638995060621</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -3529,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>0.0525480841626371</v>
       </c>
       <c r="V39" t="n">
-        <v>0.0718906474615546</v>
+        <v>0.0245130239458599</v>
       </c>
     </row>
     <row r="40">
@@ -3540,7 +3564,7 @@
         <v>60</v>
       </c>
       <c r="B40" t="n">
-        <v>0.34381524673103</v>
+        <v>0.40947993679656</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3567,16 +3591,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0256045153006113</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.330700042042373</v>
+        <v>0.136104894275772</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.0664282472800386</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3588,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.0159791583782736</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3600,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>0.00450607057828306</v>
       </c>
     </row>
     <row r="41">
@@ -3608,10 +3632,10 @@
         <v>61</v>
       </c>
       <c r="B41" t="n">
-        <v>0.239208676540846</v>
+        <v>0.318158040453428</v>
       </c>
       <c r="C41" t="n">
-        <v>0.144014125125662</v>
+        <v>0.0534583415519726</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3623,52 +3647,52 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.366296334835472</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.00538774630572032</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0271959328204957</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0340929687426617</v>
+        <v>0.00109045995600945</v>
       </c>
       <c r="L41" t="n">
-        <v>0.931740335004148</v>
+        <v>0.381179266096986</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0.175906083957134</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0.638731834375841</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0.273472661050692</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.138231909997443</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.147687795633668</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.38674366532755</v>
+        <v>0.0204197187691718</v>
       </c>
       <c r="V41" t="n">
-        <v>0.421499596794372</v>
+        <v>0.00636857975064006</v>
       </c>
     </row>
     <row r="42">
@@ -3676,52 +3700,52 @@
         <v>62</v>
       </c>
       <c r="B42" t="n">
-        <v>0.323551086805822</v>
+        <v>0.340031858207191</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0230080802035725</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.786005122232147</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>1.36507759412236</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.41956088463416</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0850937386224676</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2.54143217112347</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.34433556034446</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>1.32636865460997</v>
+        <v>0.0389816966317451</v>
       </c>
       <c r="M42" t="n">
-        <v>0.496757713512338</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0.0988875044736938</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0.798831597663195</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.405884559794172</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3733,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0.141913504232196</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0.0709335639084339</v>
+        <v>0.0263254656673471</v>
       </c>
     </row>
     <row r="43">
@@ -3744,7 +3768,7 @@
         <v>63</v>
       </c>
       <c r="B43" t="n">
-        <v>0.324547121785197</v>
+        <v>0.310587527642197</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3771,16 +3795,16 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>0.0147262115160175</v>
       </c>
       <c r="L43" t="n">
-        <v>0.137928699448675</v>
+        <v>0.276579568497981</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>0.0299517908307878</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3792,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>0.00586122265104501</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3812,10 +3836,10 @@
         <v>64</v>
       </c>
       <c r="B44" t="n">
-        <v>0.309537905027034</v>
+        <v>0.216090566499819</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>0.0912632463823865</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3827,52 +3851,52 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.0366401585144733</v>
       </c>
       <c r="H44" t="n">
-        <v>0.119118172868289</v>
+        <v>0.00165060527695506</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.00245019283017573</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.164376813580691</v>
+        <v>0.0196082707686102</v>
       </c>
       <c r="L44" t="n">
-        <v>1.72333536806076</v>
+        <v>0.779257051846981</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0.266445653612214</v>
+        <v>0.0793141840749772</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0.120373674950379</v>
+        <v>0.0816722097221454</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>0.100310924858926</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>0.0294221336879329</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>0.109036479737245</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.788512972707688</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>0.154347937541456</v>
       </c>
     </row>
     <row r="45">
@@ -3880,67 +3904,67 @@
         <v>65</v>
       </c>
       <c r="B45" t="n">
-        <v>0.215166452900769</v>
+        <v>0.292281779451105</v>
       </c>
       <c r="C45" t="n">
-        <v>0.116986751681576</v>
+        <v>0.0145804593165575</v>
       </c>
       <c r="D45" t="n">
-        <v>1.77392574810556</v>
+        <v>0.073563638446465</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>0.0924469400103699</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.141996877629977</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>0.0260695597075448</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>0.228968019783157</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.243794472466245</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0.853172737640492</v>
+        <v>1.10930276239357</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>0.0982348173809923</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>0.0445873249867409</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>0.149075002336542</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>0.062315622335204</v>
       </c>
       <c r="R45" t="n">
-        <v>0.125597275580765</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0.116141125332772</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.656283617552482</v>
+        <v>0.0806930955498995</v>
       </c>
       <c r="V45" t="n">
-        <v>0.883743607707312</v>
+        <v>0.0259749935112584</v>
       </c>
     </row>
     <row r="46">
@@ -3948,7 +3972,7 @@
         <v>66</v>
       </c>
       <c r="B46" t="n">
-        <v>0.299543209199516</v>
+        <v>0.293181553514735</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -3978,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.221794220367313</v>
+        <v>0.115356079005621</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -4016,10 +4040,10 @@
         <v>67</v>
       </c>
       <c r="B47" t="n">
-        <v>0.236186225568951</v>
+        <v>0.279622889176587</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0811137683105312</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -4034,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>0.0364933821232246</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -4043,22 +4067,22 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>0.0945398769200849</v>
       </c>
       <c r="L47" t="n">
-        <v>0.276222772935625</v>
+        <v>1.44130417865046</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>0.120137513957314</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>0.0153917238760764</v>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
@@ -4084,16 +4108,16 @@
         <v>68</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>0.105397672212102</v>
       </c>
       <c r="C48" t="n">
-        <v>0.403511722964991</v>
+        <v>0.165840189943073</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0998147535216759</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -4114,37 +4138,37 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>0.457309185257075</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>0.0111675830153273</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>4.52316997576873</v>
+        <v>0.258226691270741</v>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>0.00951659773723119</v>
+        <v>0.03711774276114</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>0.021909035286152</v>
       </c>
       <c r="T48" t="n">
-        <v>0.0274104636796415</v>
+        <v>0.191979616305512</v>
       </c>
       <c r="U48" t="n">
-        <v>0</v>
+        <v>0.24442302776951</v>
       </c>
       <c r="V48" t="n">
-        <v>0</v>
+        <v>0.151153634175962</v>
       </c>
     </row>
     <row r="49">
@@ -4152,13 +4176,13 @@
         <v>69</v>
       </c>
       <c r="B49" t="n">
-        <v>0.252958538727386</v>
+        <v>0.194371882205303</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0160138770055126</v>
+        <v>0.0741357192072281</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>0.166024913417766</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -4182,13 +4206,13 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0.136759502526196</v>
+        <v>0.713547377174551</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>0.0595678433998474</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -4200,19 +4224,19 @@
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>0.019414950111486</v>
+        <v>0.0460696101206712</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>0.0247201946082564</v>
       </c>
       <c r="T49" t="n">
         <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>0.373167845762923</v>
       </c>
       <c r="V49" t="n">
-        <v>0.133772935481904</v>
+        <v>0.323615975442116</v>
       </c>
     </row>
     <row r="50">
@@ -4220,7 +4244,7 @@
         <v>70</v>
       </c>
       <c r="B50" t="n">
-        <v>0.260571909546743</v>
+        <v>0.270594121848438</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -4250,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0.129293693010784</v>
+        <v>0.185496649427936</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -4280,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>0.0425765454916853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -4288,10 +4312,10 @@
         <v>71</v>
       </c>
       <c r="B51" t="n">
-        <v>0.2587744671127</v>
+        <v>0.21336021761708</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>0.051402637177905</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -4318,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0.13439675041202</v>
+        <v>0.231017737028476</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -4356,16 +4380,16 @@
         <v>72</v>
       </c>
       <c r="B52" t="n">
-        <v>0.209716882209018</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>0.25570956848158</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>0.046700897776113</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -4386,31 +4410,31 @@
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>0.0752305144807475</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>0.00503534451466787</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>0.578360537221201</v>
       </c>
       <c r="Q52" t="n">
         <v>0</v>
       </c>
       <c r="R52" t="n">
-        <v>0</v>
+        <v>0.00349072816589541</v>
       </c>
       <c r="S52" t="n">
         <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>0.0202368818274406</v>
       </c>
       <c r="U52" t="n">
         <v>0</v>
@@ -4424,10 +4448,10 @@
         <v>73</v>
       </c>
       <c r="B53" t="n">
-        <v>0.140543970193138</v>
+        <v>0.228511585470159</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0918266089555233</v>
+        <v>0.0101481601295435</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -4454,13 +4478,13 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0.378442249710258</v>
+        <v>0.114378226150474</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>0.0504206382262592</v>
+        <v>0.0268585076199879</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4472,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>0.00712148554188404</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
@@ -4481,10 +4505,10 @@
         <v>0</v>
       </c>
       <c r="U53" t="n">
-        <v>0.301623690745318</v>
+        <v>0</v>
       </c>
       <c r="V53" t="n">
-        <v>0.0737227788346715</v>
+        <v>0.0489859939310239</v>
       </c>
     </row>
     <row r="54">
@@ -4492,7 +4516,7 @@
         <v>74</v>
       </c>
       <c r="B54" t="n">
-        <v>0.184380957963546</v>
+        <v>0.235389168830089</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -4522,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>0.150375775019231</v>
+        <v>0.108134228231671</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
@@ -4552,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="V54" t="n">
-        <v>0</v>
+        <v>0.0155910042008594</v>
       </c>
     </row>
     <row r="55">
@@ -4560,67 +4584,67 @@
         <v>75</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0276027624743936</v>
+        <v>0.233765438623308</v>
       </c>
       <c r="C55" t="n">
-        <v>0.212737709942798</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>9.69086671745082</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.331243149357943</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>2.63501236662851</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.997092249645307</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1.91770177717096</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0.534630468309004</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>0.339381588335752</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>0.124300247821031</v>
+        <v>0.112402148505698</v>
       </c>
       <c r="M55" t="n">
-        <v>0.702817161866403</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>0.128749133013684</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>0.815562500690219</v>
+        <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>0.757853247428167</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.671565357676189</v>
+        <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>0.866637562420292</v>
+        <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>0.778300645238919</v>
+        <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>0.177543196608818</v>
+        <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>0.402955098404508</v>
+        <v>0</v>
       </c>
       <c r="V55" t="n">
-        <v>0.741274884514197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -4628,7 +4652,7 @@
         <v>76</v>
       </c>
       <c r="B56" t="n">
-        <v>0.152645222758644</v>
+        <v>0.189448980431879</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -4658,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>0.0554637790100897</v>
+        <v>0.0629187196483641</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -4688,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="V56" t="n">
-        <v>0.0389396279898265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -4696,10 +4720,10 @@
         <v>77</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0872274771017855</v>
+        <v>0.126961223047371</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0569505369000394</v>
+        <v>0.0581914755254355</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -4726,13 +4750,13 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>0.117626082055214</v>
+        <v>0.31650856008315</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>0.0227341300055879</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4753,10 +4777,10 @@
         <v>0</v>
       </c>
       <c r="U57" t="n">
-        <v>0</v>
+        <v>0.171505519711517</v>
       </c>
       <c r="V57" t="n">
-        <v>0</v>
+        <v>0.0269963695090025</v>
       </c>
     </row>
     <row r="58">
@@ -4764,13 +4788,13 @@
         <v>78</v>
       </c>
       <c r="B58" t="n">
-        <v>0.122775622055329</v>
+        <v>0.166561624077706</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.833520990484974</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -4791,22 +4815,22 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0.00478345224705713</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0.117029304459366</v>
+        <v>0.12576613752604</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>0.0767743579860874</v>
+        <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>0.0299278859427284</v>
+        <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>0.0276280281258022</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="n">
         <v>0</v>
@@ -4821,10 +4845,10 @@
         <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>0.0954227676176098</v>
+        <v>0</v>
       </c>
       <c r="V58" t="n">
-        <v>0.0291500305036201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -4832,67 +4856,67 @@
         <v>79</v>
       </c>
       <c r="B59" t="n">
-        <v>0.12176813839803</v>
+        <v>0.0249351180162278</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>0.134814095633975</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>0.906985712015347</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>0.0224327288715245</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>0.263576950187699</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>0.305472016588483</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>0.172773597282106</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>0.0969549246710233</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>0.195192332125691</v>
       </c>
       <c r="L59" t="n">
-        <v>0.0170873258566438</v>
+        <v>0.103957981662814</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>0.138983479612257</v>
       </c>
       <c r="N59" t="n">
-        <v>0.0523966121593887</v>
+        <v>0.0580516159852067</v>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
+        <v>0.152197261665219</v>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>0.0969038116333211</v>
       </c>
       <c r="Q59" t="n">
-        <v>0</v>
+        <v>0.103105703807944</v>
       </c>
       <c r="R59" t="n">
-        <v>0</v>
+        <v>0.317886311084492</v>
       </c>
       <c r="S59" t="n">
-        <v>0</v>
+        <v>0.165658317490133</v>
       </c>
       <c r="T59" t="n">
-        <v>0</v>
+        <v>0.131078435265845</v>
       </c>
       <c r="U59" t="n">
-        <v>0</v>
+        <v>0.229123327154776</v>
       </c>
       <c r="V59" t="n">
-        <v>0</v>
+        <v>0.271445691635772</v>
       </c>
     </row>
     <row r="60">
@@ -4900,7 +4924,7 @@
         <v>80</v>
       </c>
       <c r="B60" t="n">
-        <v>0.119673030337966</v>
+        <v>0.153426991194832</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -4930,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>0.0385713193071924</v>
+        <v>0.102114321592173</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -4960,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="V60" t="n">
-        <v>0</v>
+        <v>0.0107645019370095</v>
       </c>
     </row>
     <row r="61">
@@ -4968,7 +4992,7 @@
         <v>81</v>
       </c>
       <c r="B61" t="n">
-        <v>0.107846546042633</v>
+        <v>0.137892960808944</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -4998,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>0.0784336268829551</v>
+        <v>0.0463868948160353</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
@@ -5028,7 +5052,7 @@
         <v>0</v>
       </c>
       <c r="V61" t="n">
-        <v>0.00298063163686172</v>
+        <v>0.0142592100077224</v>
       </c>
     </row>
     <row r="62">
@@ -5036,10 +5060,10 @@
         <v>82</v>
       </c>
       <c r="B62" t="n">
-        <v>0.104869889782433</v>
+        <v>0.0787974550666277</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>0.0360901465476551</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -5051,25 +5075,25 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0.465749641808009</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0422529922400127</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0.477046133976519</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>0.056279781028903</v>
+        <v>0.0983760716146836</v>
       </c>
       <c r="M62" t="n">
-        <v>0.0560363835144313</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -5104,13 +5128,13 @@
         <v>83</v>
       </c>
       <c r="B63" t="n">
-        <v>0.103473151075723</v>
+        <v>0.110910081130662</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>0.0780107343415838</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -5131,22 +5155,22 @@
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>0.00275116043947337</v>
       </c>
       <c r="L63" t="n">
-        <v>0.179678772888857</v>
+        <v>0.097876959219869</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>0.0346167422101819</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>0.00558503153842579</v>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>0.00353269085062092</v>
       </c>
       <c r="Q63" t="n">
         <v>0</v>
@@ -5161,10 +5185,10 @@
         <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>0</v>
+        <v>0.0542581098723707</v>
       </c>
       <c r="V63" t="n">
-        <v>0</v>
+        <v>0.0106743805254439</v>
       </c>
     </row>
     <row r="64">
@@ -5172,28 +5196,28 @@
         <v>84</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>0.109999964836416</v>
       </c>
       <c r="C64" t="n">
-        <v>0.128933863479167</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.744199777828299</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.780214324456867</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.18620177034914</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>1.14281254752547</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>2.20031747088925</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -5202,37 +5226,37 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>0.0142909120392836</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>0.0306164949863547</v>
+        <v>0.0236250756553005</v>
       </c>
       <c r="O64" t="n">
-        <v>0.309935837262979</v>
+        <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>1.17188233747206</v>
+        <v>0</v>
       </c>
       <c r="Q64" t="n">
         <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>0.00294496434275349</v>
+        <v>0</v>
       </c>
       <c r="S64" t="n">
         <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>0.00912776590323047</v>
+        <v>0</v>
       </c>
       <c r="U64" t="n">
         <v>0</v>
       </c>
       <c r="V64" t="n">
-        <v>0.114904716863238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -5240,7 +5264,7 @@
         <v>85</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0930205081312518</v>
+        <v>0.108107336633608</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -5270,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>0.0126419417243024</v>
+        <v>0.0322589582526095</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
@@ -5308,7 +5332,7 @@
         <v>86</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0909025027153402</v>
+        <v>0.0974238124068294</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -5338,7 +5362,7 @@
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>0.0288767281583054</v>
+        <v>0.0655976290327772</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
@@ -5368,7 +5392,7 @@
         <v>0</v>
       </c>
       <c r="V66" t="n">
-        <v>0</v>
+        <v>0.0010914704289619</v>
       </c>
     </row>
     <row r="67">
@@ -5376,7 +5400,7 @@
         <v>87</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0883265501824747</v>
+        <v>0.094734832446556</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -5391,25 +5415,25 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>0.0465883468683073</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>0.0129447468386657</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>0.086512039111029</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>0.0112535203788588</v>
+        <v>0.04706935462119</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>0.0110813053355732</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -5444,7 +5468,7 @@
         <v>88</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0875938347953486</v>
+        <v>0.0934730803113508</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -5474,7 +5498,7 @@
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>0.0355874313279495</v>
+        <v>0.150273574708162</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -5512,28 +5536,28 @@
         <v>89</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0846400758909962</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0.00226283044643113</v>
+        <v>0.0817067279995259</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>0.0696510007881747</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>0.365043324001262</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>0.0126101138626913</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>0.114314091929067</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>0.19823560114181</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -5542,37 +5566,37 @@
         <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>0.122120182725992</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>0.0138046522579065</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>0.0578390812272767</v>
       </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>0.149844136278603</v>
       </c>
       <c r="Q69" t="n">
         <v>0</v>
       </c>
       <c r="R69" t="n">
-        <v>0</v>
+        <v>0.00108022533500488</v>
       </c>
       <c r="S69" t="n">
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>0</v>
+        <v>0.00673894181766108</v>
       </c>
       <c r="U69" t="n">
-        <v>0.0131617610507048</v>
+        <v>0</v>
       </c>
       <c r="V69" t="n">
-        <v>0</v>
+        <v>0.0420766857109898</v>
       </c>
     </row>
     <row r="70">
@@ -5580,7 +5604,7 @@
         <v>90</v>
       </c>
       <c r="B70" t="n">
-        <v>0.085922327818467</v>
+        <v>0.0840306237585445</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -5610,7 +5634,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>0.0283043088316751</v>
+        <v>0.0105730339962768</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
@@ -5648,7 +5672,7 @@
         <v>91</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0833463752856016</v>
+        <v>0.0830170851581337</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -5678,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0.0155892922997178</v>
+        <v>0.0564608164174975</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
@@ -5687,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>0.203145188899073</v>
+        <v>0</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
@@ -5696,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="R71" t="n">
-        <v>0.0690975893012718</v>
+        <v>0</v>
       </c>
       <c r="S71" t="n">
         <v>0</v>
@@ -5716,7 +5740,7 @@
         <v>92</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0828082874231808</v>
+        <v>0.0821173110945038</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -5746,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>0.0418596856516641</v>
+        <v>0.0241509283286824</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
@@ -5784,7 +5808,7 @@
         <v>93</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0789042882511492</v>
+        <v>0.0797903092058056</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -5793,7 +5817,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0553010125305639</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -5814,7 +5838,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0165149065300135</v>
+        <v>0.00941183373078978</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
@@ -5852,7 +5876,7 @@
         <v>94</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0742790223699153</v>
+        <v>0.0791284064463537</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -5882,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>0.0603841493921881</v>
+        <v>0.0297633962785365</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
@@ -5900,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="R74" t="n">
-        <v>0.0684704209690187</v>
+        <v>0</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
@@ -5909,10 +5933,10 @@
         <v>0</v>
       </c>
       <c r="U74" t="n">
-        <v>0.139631424695179</v>
+        <v>0</v>
       </c>
       <c r="V74" t="n">
-        <v>0.063741764637841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -5920,10 +5944,10 @@
         <v>95</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0728708349852822</v>
+        <v>0.0764601109473132</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>0.00143397914873984</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -5950,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>0.102134693526655</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
@@ -5977,7 +6001,7 @@
         <v>0</v>
       </c>
       <c r="U75" t="n">
-        <v>0</v>
+        <v>0.00748387722377527</v>
       </c>
       <c r="V75" t="n">
         <v>0</v>
@@ -5988,7 +6012,7 @@
         <v>96</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0671007013116636</v>
+        <v>0.077618440776354</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -6018,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>0.0283530253701117</v>
+        <v>0.02367218786835</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
@@ -6056,7 +6080,7 @@
         <v>97</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0613992597055881</v>
+        <v>0.0752914388876559</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -6068,7 +6092,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0.107650254274725</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -6086,7 +6110,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>0.0909415981265568</v>
+        <v>0.0130380380686265</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
@@ -6095,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>0</v>
+        <v>0.0379102048521559</v>
       </c>
       <c r="P77" t="n">
         <v>0</v>
@@ -6104,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="R77" t="n">
-        <v>0</v>
+        <v>0.0253452870268738</v>
       </c>
       <c r="S77" t="n">
         <v>0</v>
@@ -6124,7 +6148,7 @@
         <v>98</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0606665443184619</v>
+        <v>0.0748053540486834</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -6154,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>0.0825988909192859</v>
+        <v>0.0350091694077104</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -6192,7 +6216,7 @@
         <v>99</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0562130086060857</v>
+        <v>0.0712786534084786</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -6201,7 +6225,7 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>0.0258740000048647</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
@@ -6222,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>0.0138121715789512</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
@@ -6260,7 +6284,7 @@
         <v>100</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0504886696441625</v>
+        <v>0.0671003922394384</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -6290,13 +6314,13 @@
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0937306199520532</v>
+        <v>0.0505020255814456</v>
       </c>
       <c r="M80" t="n">
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>0.0173841302206785</v>
+        <v>0</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
@@ -6308,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="R80" t="n">
-        <v>0</v>
+        <v>0.0251152390388635</v>
       </c>
       <c r="S80" t="n">
         <v>0</v>
@@ -6317,10 +6341,10 @@
         <v>0</v>
       </c>
       <c r="U80" t="n">
-        <v>0</v>
+        <v>0.0793954878054546</v>
       </c>
       <c r="V80" t="n">
-        <v>0</v>
+        <v>0.0233414455955063</v>
       </c>
     </row>
     <row r="81">
@@ -6328,7 +6352,7 @@
         <v>101</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0499047870700463</v>
+        <v>0.0658282978736167</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -6358,7 +6382,7 @@
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>0.00517613220889067</v>
+        <v>0</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
@@ -6396,7 +6420,7 @@
         <v>102</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0460923773214055</v>
+        <v>0.0606158136429328</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -6414,7 +6438,7 @@
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.222464942914379</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6423,16 +6447,16 @@
         <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>0.119064475022204</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>0.0237129317373145</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>0.0268421627545343</v>
+        <v>0</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -6464,7 +6488,7 @@
         <v>103</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0449475095290209</v>
+        <v>0.0554653827959476</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -6476,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>0.00729038161778265</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -6494,13 +6518,13 @@
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>0.413505978250014</v>
+        <v>0.0760586173894018</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>0.231077940404626</v>
+        <v>0</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -6532,7 +6556,7 @@
         <v>104</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0446040491913055</v>
+        <v>0.0548034800364957</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -6562,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>0.0731357033279729</v>
+        <v>0.0690812298292384</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
@@ -6600,7 +6624,7 @@
         <v>105</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0414900087960193</v>
+        <v>0.050780352326702</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -6630,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0193161074901191</v>
+        <v>0</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
@@ -6668,7 +6692,7 @@
         <v>106</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0396009769385846</v>
+        <v>0.0490325153525242</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -6698,7 +6722,7 @@
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>0.00315764984474549</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
@@ -6736,7 +6760,7 @@
         <v>107</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0385934932812861</v>
+        <v>0.0456092370184838</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -6766,13 +6790,13 @@
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0552932711255615</v>
+        <v>0.078391203887617</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>0.00783831959241539</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
@@ -6804,7 +6828,7 @@
         <v>108</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0377119450811499</v>
+        <v>0.0450817832570456</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -6834,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>0.0283530253701117</v>
+        <v>0.00432903607747365</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
@@ -6872,7 +6896,7 @@
         <v>109</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0355137989197714</v>
+        <v>0.0416378204617723</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -6890,37 +6914,37 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>0.0681549924357262</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>0.825451252558751</v>
+        <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>0.0684788843934371</v>
       </c>
       <c r="L89" t="n">
-        <v>0.163163866358843</v>
+        <v>0</v>
       </c>
       <c r="M89" t="n">
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>0.0121028459607027</v>
       </c>
       <c r="O89" t="n">
         <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>0.0889888611304168</v>
+        <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.37143335023686</v>
+        <v>0</v>
       </c>
       <c r="R89" t="n">
-        <v>0.0567450999747224</v>
+        <v>0</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -6929,7 +6953,7 @@
         <v>0</v>
       </c>
       <c r="U89" t="n">
-        <v>0.056008246621682</v>
+        <v>0</v>
       </c>
       <c r="V89" t="n">
         <v>0</v>
@@ -6940,10 +6964,10 @@
         <v>110</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>0.0406035974001287</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0485954706362937</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -6970,13 +6994,13 @@
         <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0622719152566071</v>
+        <v>0.345833959770319</v>
       </c>
       <c r="M90" t="n">
-        <v>0.300452558571484</v>
+        <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>0.104190587889986</v>
       </c>
       <c r="O90" t="n">
         <v>0</v>
@@ -7008,7 +7032,7 @@
         <v>111</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0326859754725814</v>
+        <v>0.0402933304816356</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -7038,13 +7062,13 @@
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>0.00973112855271446</v>
+        <v>0.0611667332828924</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0147198957040995</v>
+        <v>0</v>
       </c>
       <c r="O91" t="n">
         <v>0</v>
@@ -7076,7 +7100,7 @@
         <v>112</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0303504451761167</v>
+        <v>0.037480243753965</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -7106,7 +7130,7 @@
         <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>0.0343938761362524</v>
+        <v>0.0161549440444076</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
@@ -7144,10 +7168,10 @@
         <v>113</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>0.035773775702253</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0418386272752721</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -7212,7 +7236,7 @@
         <v>114</v>
       </c>
       <c r="B94" t="n">
-        <v>0.029136885316189</v>
+        <v>0.0348636594080066</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -7242,7 +7266,7 @@
         <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>0.0462442912746597</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
@@ -7280,7 +7304,7 @@
         <v>115</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0280149148796521</v>
+        <v>0.034067307650541</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -7310,7 +7334,7 @@
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>0.0237129317373145</v>
       </c>
       <c r="M95" t="n">
         <v>0</v>
@@ -7348,10 +7372,10 @@
         <v>116</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>0.0320815993721852</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0383257016871062</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -7372,13 +7396,13 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>0.149695104853581</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>0.136461403129211</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
@@ -7390,13 +7414,13 @@
         <v>0</v>
       </c>
       <c r="P96" t="n">
-        <v>0</v>
+        <v>0.0113786671307535</v>
       </c>
       <c r="Q96" t="n">
-        <v>0</v>
+        <v>0.057026314052935</v>
       </c>
       <c r="R96" t="n">
-        <v>0</v>
+        <v>0.0208143418717144</v>
       </c>
       <c r="S96" t="n">
         <v>0</v>
@@ -7405,7 +7429,7 @@
         <v>0</v>
       </c>
       <c r="U96" t="n">
-        <v>0</v>
+        <v>0.0318467141000975</v>
       </c>
       <c r="V96" t="n">
         <v>0</v>
@@ -7416,10 +7440,10 @@
         <v>117</v>
       </c>
       <c r="B97" t="n">
-        <v>0.027053225934049</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>0.0307954543061541</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -7446,10 +7470,10 @@
         <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>0.036963673538784</v>
+        <v>0.0520808505038183</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>0.0594150859062373</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
@@ -7484,7 +7508,7 @@
         <v>118</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0255305517701774</v>
+        <v>0.0295270684099255</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -7514,13 +7538,13 @@
         <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>0.0922691237989546</v>
+        <v>0.00813858782565047</v>
       </c>
       <c r="M98" t="n">
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>0</v>
+        <v>0.00663704455909502</v>
       </c>
       <c r="O98" t="n">
         <v>0</v>
@@ -7552,10 +7576,10 @@
         <v>119</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>0.0274172533641725</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0345121203053587</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -7582,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>0.00172943711449994</v>
+        <v>0.0287651714889073</v>
       </c>
       <c r="M99" t="n">
         <v>0</v>
@@ -7612,7 +7636,7 @@
         <v>0</v>
       </c>
       <c r="V99" t="n">
-        <v>0.0429046884241838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -7620,10 +7644,10 @@
         <v>120</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0212716435825066</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>0.0265135725123646</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -7632,40 +7656,40 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.217260527184705</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.0224326164365446</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>1.75924973240054</v>
+        <v>0</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>0.021203873354538</v>
+        <v>0</v>
       </c>
       <c r="M100" t="n">
-        <v>0.115883037893398</v>
+        <v>0</v>
       </c>
       <c r="N100" t="n">
         <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>0.378902496935429</v>
+        <v>0</v>
       </c>
       <c r="P100" t="n">
         <v>0</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.0645710291315963</v>
+        <v>0</v>
       </c>
       <c r="R100" t="n">
         <v>0</v>
@@ -7688,7 +7712,7 @@
         <v>121</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0208251451434766</v>
+        <v>0.0263209769188302</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -7718,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>0.0154066052805805</v>
+        <v>0</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
@@ -7756,10 +7780,10 @@
         <v>122</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0145512696412087</v>
+        <v>0.0253074383184195</v>
       </c>
       <c r="C102" t="n">
-        <v>0.00784869861139748</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -7768,13 +7792,13 @@
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.123933486013759</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>0.138938548671757</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7786,7 +7810,7 @@
         <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>0.0232134305650485</v>
+        <v>0</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
@@ -7795,16 +7819,16 @@
         <v>0</v>
       </c>
       <c r="O102" t="n">
-        <v>0.342624598292675</v>
+        <v>0</v>
       </c>
       <c r="P102" t="n">
-        <v>0.0499339431848777</v>
+        <v>0</v>
       </c>
       <c r="Q102" t="n">
-        <v>0.0645043923626266</v>
+        <v>0</v>
       </c>
       <c r="R102" t="n">
-        <v>0.00921664766528408</v>
+        <v>0</v>
       </c>
       <c r="S102" t="n">
         <v>0</v>
@@ -7816,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="V102" t="n">
-        <v>0.0161336941811781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -7824,10 +7848,10 @@
         <v>123</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0166120316675011</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>0.0242873950926426</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -7892,7 +7916,7 @@
         <v>124</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0157304834673649</v>
+        <v>0.0244386909466388</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -7922,7 +7946,7 @@
         <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>0.0140912587427918</v>
+        <v>0.0309144105767824</v>
       </c>
       <c r="M104" t="n">
         <v>0</v>
@@ -7960,7 +7984,7 @@
         <v>125</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0137613108644633</v>
+        <v>0.0230631742746528</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -7990,7 +8014,7 @@
         <v>0</v>
       </c>
       <c r="L105" t="n">
-        <v>0.042480821516731</v>
+        <v>0.0771688878186833</v>
       </c>
       <c r="M105" t="n">
         <v>0</v>
@@ -8028,10 +8052,10 @@
         <v>126</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0137613108644633</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>0.0218706889748363</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -8058,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>0.0135310185507707</v>
+        <v>0.00144640734823826</v>
       </c>
       <c r="M106" t="n">
         <v>0</v>
@@ -8088,7 +8112,7 @@
         <v>0</v>
       </c>
       <c r="V106" t="n">
-        <v>0</v>
+        <v>0.0157111660829469</v>
       </c>
     </row>
     <row r="107">
@@ -8096,7 +8120,7 @@
         <v>127</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0135208886280626</v>
+        <v>0.0192158644853385</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -8108,40 +8132,40 @@
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>0.0147135012762252</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>0.00687252015314016</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
+        <v>0.319038916397536</v>
       </c>
       <c r="K107" t="n">
         <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>0</v>
+        <v>0.0177337689667803</v>
       </c>
       <c r="M107" t="n">
-        <v>0</v>
+        <v>0.0229160992479079</v>
       </c>
       <c r="N107" t="n">
         <v>0</v>
       </c>
       <c r="O107" t="n">
-        <v>0</v>
+        <v>0.0707093845326158</v>
       </c>
       <c r="P107" t="n">
         <v>0</v>
       </c>
       <c r="Q107" t="n">
-        <v>0</v>
+        <v>0.00991361649036492</v>
       </c>
       <c r="R107" t="n">
         <v>0</v>
@@ -8164,16 +8188,16 @@
         <v>128</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0130629415111087</v>
+        <v>0.0188125174912975</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>2.45369357760009</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>0.246331028005317</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -8194,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="L108" t="n">
-        <v>0.0569739917016248</v>
+        <v>0.0128852485600098</v>
       </c>
       <c r="M108" t="n">
         <v>0</v>
@@ -8218,13 +8242,13 @@
         <v>0</v>
       </c>
       <c r="T108" t="n">
-        <v>0.0355195057097436</v>
+        <v>0</v>
       </c>
       <c r="U108" t="n">
         <v>0</v>
       </c>
       <c r="V108" t="n">
-        <v>0.0108834072612015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -8232,10 +8256,10 @@
         <v>129</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0127996219188602</v>
+        <v>0.0131449751134905</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>0.0049738018026221</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
@@ -8244,13 +8268,13 @@
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>0.00839312841711112</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>0.0425656088087502</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8262,7 +8286,7 @@
         <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>0.0108881463405841</v>
+        <v>0.0194144535615642</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
@@ -8271,16 +8295,16 @@
         <v>0</v>
       </c>
       <c r="O109" t="n">
-        <v>0</v>
+        <v>0.0639393370773654</v>
       </c>
       <c r="P109" t="n">
-        <v>0</v>
+        <v>0.00638486335041401</v>
       </c>
       <c r="Q109" t="n">
-        <v>0</v>
+        <v>0.00990338571999302</v>
       </c>
       <c r="R109" t="n">
-        <v>0</v>
+        <v>0.00338070521510787</v>
       </c>
       <c r="S109" t="n">
         <v>0</v>
@@ -8292,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="V109" t="n">
-        <v>0</v>
+        <v>0.00590795920263779</v>
       </c>
     </row>
     <row r="110">
@@ -8300,7 +8324,7 @@
         <v>130</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0118608303291048</v>
+        <v>0.015006576624449</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -8368,7 +8392,7 @@
         <v>131</v>
       </c>
       <c r="B111" t="n">
-        <v>0.010361053521081</v>
+        <v>0.0142102248669834</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -8398,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="L111" t="n">
-        <v>0</v>
+        <v>0.0117851640979694</v>
       </c>
       <c r="M111" t="n">
         <v>0</v>
@@ -8436,7 +8460,7 @@
         <v>132</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0101664259963756</v>
+        <v>0.0124313612009564</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -8466,7 +8490,7 @@
         <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>0.00576073067013009</v>
+        <v>0.0355286537370073</v>
       </c>
       <c r="M112" t="n">
         <v>0</v>
@@ -8504,7 +8528,7 @@
         <v>133</v>
       </c>
       <c r="B113" t="n">
-        <v>0.00946805664302095</v>
+        <v>0.0124313612009564</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -8534,7 +8558,7 @@
         <v>0</v>
       </c>
       <c r="L113" t="n">
-        <v>0.0635507243905683</v>
+        <v>0.0113166096048782</v>
       </c>
       <c r="M113" t="n">
         <v>0</v>
@@ -8572,7 +8596,7 @@
         <v>134</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0094566079650971</v>
+        <v>0.0122141743580112</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -8640,16 +8664,16 @@
         <v>135</v>
       </c>
       <c r="B115" t="n">
-        <v>0.00842622695195093</v>
+        <v>0.0118004851333538</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>0.229645611835689</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>0.115252302411015</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -8670,7 +8694,7 @@
         <v>0</v>
       </c>
       <c r="L115" t="n">
-        <v>0</v>
+        <v>0.0476499547539335</v>
       </c>
       <c r="M115" t="n">
         <v>0</v>
@@ -8694,13 +8718,13 @@
         <v>0</v>
       </c>
       <c r="T115" t="n">
-        <v>0</v>
+        <v>0.026223709602952</v>
       </c>
       <c r="U115" t="n">
         <v>0</v>
       </c>
       <c r="V115" t="n">
-        <v>0</v>
+        <v>0.00398536908923702</v>
       </c>
     </row>
     <row r="116">
@@ -8708,7 +8732,7 @@
         <v>136</v>
       </c>
       <c r="B116" t="n">
-        <v>0.008048420580464</v>
+        <v>0.0115626138291757</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -8738,7 +8762,7 @@
         <v>0</v>
       </c>
       <c r="L116" t="n">
-        <v>0.00155892922997178</v>
+        <v>0.00910625471355634</v>
       </c>
       <c r="M116" t="n">
         <v>0</v>
@@ -8776,7 +8800,7 @@
         <v>137</v>
       </c>
       <c r="B117" t="n">
-        <v>0.00764771685312938</v>
+        <v>0.0107145509186279</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -8844,7 +8868,7 @@
         <v>138</v>
       </c>
       <c r="B118" t="n">
-        <v>0.00749888404011937</v>
+        <v>0.0093597187078748</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -8874,7 +8898,7 @@
         <v>0</v>
       </c>
       <c r="L118" t="n">
-        <v>0.0940594565865003</v>
+        <v>0</v>
       </c>
       <c r="M118" t="n">
         <v>0</v>
@@ -8912,7 +8936,7 @@
         <v>139</v>
       </c>
       <c r="B119" t="n">
-        <v>0.00700659088939398</v>
+        <v>0.00918390078739539</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -8942,7 +8966,7 @@
         <v>0</v>
       </c>
       <c r="L119" t="n">
-        <v>0</v>
+        <v>0.00481796250504715</v>
       </c>
       <c r="M119" t="n">
         <v>0</v>
@@ -8980,7 +9004,7 @@
         <v>140</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0064685030269732</v>
+        <v>0.00855302471979277</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -9010,7 +9034,7 @@
         <v>0</v>
       </c>
       <c r="L120" t="n">
-        <v>0</v>
+        <v>0.0531503770641353</v>
       </c>
       <c r="M120" t="n">
         <v>0</v>
@@ -9048,7 +9072,7 @@
         <v>141</v>
       </c>
       <c r="B121" t="n">
-        <v>0.00540377598005549</v>
+        <v>0.00854268248917634</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -9116,7 +9140,7 @@
         <v>142</v>
       </c>
       <c r="B122" t="n">
-        <v>0.00397269123957469</v>
+        <v>0.00761188173369708</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -9184,7 +9208,7 @@
         <v>143</v>
       </c>
       <c r="B123" t="n">
-        <v>0.00343460337715391</v>
+        <v>0.00727058812335468</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -9214,7 +9238,7 @@
         <v>0</v>
       </c>
       <c r="L123" t="n">
-        <v>0</v>
+        <v>0.00130380380686265</v>
       </c>
       <c r="M123" t="n">
         <v>0</v>
@@ -9252,7 +9276,7 @@
         <v>144</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0023698763302362</v>
+        <v>0.00690861005177941</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -9282,7 +9306,7 @@
         <v>0</v>
       </c>
       <c r="L124" t="n">
-        <v>0.0109125046098024</v>
+        <v>0</v>
       </c>
       <c r="M124" t="n">
         <v>0</v>
@@ -9320,7 +9344,7 @@
         <v>145</v>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>0.00677416105376574</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -9332,40 +9356,40 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>1.01845583701088</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0769412405049106</v>
+        <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>0.0715753933462966</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0.460776804644399</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>10.2334695158311</v>
+        <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>0.0413986049018036</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
-        <v>0</v>
+        <v>0.0786662250031271</v>
       </c>
       <c r="M125" t="n">
-        <v>0.378944138380909</v>
+        <v>0</v>
       </c>
       <c r="N125" t="n">
         <v>0</v>
       </c>
       <c r="O125" t="n">
-        <v>3.44242471093638</v>
+        <v>0</v>
       </c>
       <c r="P125" t="n">
         <v>0</v>
       </c>
       <c r="Q125" t="n">
-        <v>9.03947762104069</v>
+        <v>0</v>
       </c>
       <c r="R125" t="n">
         <v>0</v>
@@ -9388,7 +9412,7 @@
         <v>146</v>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>0.00632944513725898</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -9400,40 +9424,40 @@
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>2.39830895622977</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>0.513305284399536</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>1.00013699728109</v>
+        <v>0</v>
       </c>
       <c r="K126" t="n">
         <v>0</v>
       </c>
       <c r="L126" t="n">
-        <v>0.034052860367196</v>
+        <v>0</v>
       </c>
       <c r="M126" t="n">
-        <v>1.48483715410361</v>
+        <v>0</v>
       </c>
       <c r="N126" t="n">
         <v>0</v>
       </c>
       <c r="O126" t="n">
-        <v>1.22207374849532</v>
+        <v>0</v>
       </c>
       <c r="P126" t="n">
         <v>0</v>
       </c>
       <c r="Q126" t="n">
-        <v>1.2091241729544</v>
+        <v>0</v>
       </c>
       <c r="R126" t="n">
         <v>0</v>
@@ -9456,7 +9480,7 @@
         <v>147</v>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>0.00584336029828648</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -9465,22 +9489,22 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>0.235976980222469</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>1.88621100910088</v>
+        <v>0</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>2.19876341758522</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>0.934708005359379</v>
+        <v>0</v>
       </c>
       <c r="K127" t="n">
         <v>0</v>
@@ -9489,7 +9513,7 @@
         <v>0</v>
       </c>
       <c r="M127" t="n">
-        <v>0.448138657280869</v>
+        <v>0</v>
       </c>
       <c r="N127" t="n">
         <v>0</v>
@@ -9501,7 +9525,7 @@
         <v>0</v>
       </c>
       <c r="Q127" t="n">
-        <v>0.847886248369898</v>
+        <v>0</v>
       </c>
       <c r="R127" t="n">
         <v>0</v>
@@ -9524,16 +9548,16 @@
         <v>148</v>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>0.00488153285095791</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0.102142954883629</v>
+        <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>0.170950094356134</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -9563,7 +9587,7 @@
         <v>0</v>
       </c>
       <c r="O128" t="n">
-        <v>0.0308665834722974</v>
+        <v>0</v>
       </c>
       <c r="P128" t="n">
         <v>0</v>
@@ -9572,19 +9596,19 @@
         <v>0</v>
       </c>
       <c r="R128" t="n">
-        <v>0.417285086455155</v>
+        <v>0</v>
       </c>
       <c r="S128" t="n">
-        <v>0.614405823694858</v>
+        <v>0</v>
       </c>
       <c r="T128" t="n">
-        <v>0.0936954303578627</v>
+        <v>0</v>
       </c>
       <c r="U128" t="n">
         <v>0</v>
       </c>
       <c r="V128" t="n">
-        <v>1.08525071350579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -9592,7 +9616,7 @@
         <v>149</v>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>0.00358875402390338</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -9616,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>1.13196135198694</v>
+        <v>0</v>
       </c>
       <c r="K129" t="n">
         <v>0</v>
@@ -9631,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="O129" t="n">
-        <v>1.85536327594394</v>
+        <v>0</v>
       </c>
       <c r="P129" t="n">
         <v>0</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.44248613788613</v>
+        <v>0</v>
       </c>
       <c r="R129" t="n">
         <v>0</v>
@@ -9660,16 +9684,16 @@
         <v>150</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>0.00310266918493087</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>0.545193408978021</v>
+        <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>0.89033980338573</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -9714,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="T130" t="n">
-        <v>0.0013175495425794</v>
+        <v>0</v>
       </c>
       <c r="U130" t="n">
         <v>0</v>
@@ -9728,7 +9752,7 @@
         <v>151</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>0.0021408417376023</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -9737,7 +9761,7 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>0.676695507816223</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -9758,7 +9782,7 @@
         <v>0</v>
       </c>
       <c r="L131" t="n">
-        <v>0</v>
+        <v>0.00912662664803857</v>
       </c>
       <c r="M131" t="n">
         <v>0</v>
@@ -9782,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="T131" t="n">
-        <v>0.111203897990696</v>
+        <v>0</v>
       </c>
       <c r="U131" t="n">
         <v>0</v>
@@ -9805,43 +9829,43 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>0.00918434364001532</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>0.0689727280505908</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>0.00769633485321768</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>0.0219280410126393</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>0.0415132670941203</v>
       </c>
       <c r="J132" t="n">
-        <v>0</v>
+        <v>1.85583374843718</v>
       </c>
       <c r="K132" t="n">
-        <v>0</v>
+        <v>0.0238100430761695</v>
       </c>
       <c r="L132" t="n">
         <v>0</v>
       </c>
       <c r="M132" t="n">
-        <v>0</v>
+        <v>0.0749369505875252</v>
       </c>
       <c r="N132" t="n">
         <v>0</v>
       </c>
       <c r="O132" t="n">
-        <v>0</v>
+        <v>0.642412585239998</v>
       </c>
       <c r="P132" t="n">
         <v>0</v>
       </c>
       <c r="Q132" t="n">
-        <v>0</v>
+        <v>1.38783469325849</v>
       </c>
       <c r="R132" t="n">
         <v>0</v>
@@ -9850,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="T132" t="n">
-        <v>0.502393865272002</v>
+        <v>0</v>
       </c>
       <c r="U132" t="n">
         <v>0</v>
       </c>
       <c r="V132" t="n">
-        <v>0.0460220462829199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -9870,46 +9894,46 @@
         <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>1.11279793041996</v>
+        <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>0.521882998393606</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>0.162420308675166</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>0.157257666386264</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>0</v>
+        <v>0.181374263121955</v>
       </c>
       <c r="K133" t="n">
         <v>0</v>
       </c>
       <c r="L133" t="n">
-        <v>0</v>
+        <v>0.0284799644061561</v>
       </c>
       <c r="M133" t="n">
-        <v>0</v>
+        <v>0.293629475106797</v>
       </c>
       <c r="N133" t="n">
         <v>0</v>
       </c>
       <c r="O133" t="n">
-        <v>0.0620644719550309</v>
+        <v>0.228058889314464</v>
       </c>
       <c r="P133" t="n">
         <v>0</v>
       </c>
       <c r="Q133" t="n">
-        <v>0</v>
+        <v>0.18563732839801</v>
       </c>
       <c r="R133" t="n">
         <v>0</v>
@@ -9924,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="V133" t="n">
-        <v>0.0406350331410689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -9941,34 +9965,34 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>0.110407895046218</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>0.188675298638309</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>0.198095590122943</v>
       </c>
       <c r="J134" t="n">
-        <v>0</v>
+        <v>0.169508753467904</v>
       </c>
       <c r="K134" t="n">
         <v>0</v>
       </c>
       <c r="L134" t="n">
-        <v>0.356678136163699</v>
+        <v>0</v>
       </c>
       <c r="M134" t="n">
-        <v>0</v>
+        <v>0.0886203031415149</v>
       </c>
       <c r="N134" t="n">
-        <v>0.0793275827311423</v>
+        <v>0</v>
       </c>
       <c r="O134" t="n">
         <v>0</v>
@@ -9977,7 +10001,7 @@
         <v>0</v>
       </c>
       <c r="Q134" t="n">
-        <v>0</v>
+        <v>0.130176322211974</v>
       </c>
       <c r="R134" t="n">
         <v>0</v>
@@ -9992,7 +10016,7 @@
         <v>0</v>
       </c>
       <c r="V134" t="n">
-        <v>0.112334263891999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -10006,10 +10030,10 @@
         <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>0.00955974355685385</v>
       </c>
       <c r="E135" t="n">
-        <v>0.774084208300914</v>
+        <v>0.0799833952363463</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -10039,7 +10063,7 @@
         <v>0</v>
       </c>
       <c r="O135" t="n">
-        <v>0</v>
+        <v>0.00576020780439118</v>
       </c>
       <c r="P135" t="n">
         <v>0</v>
@@ -10048,19 +10072,19 @@
         <v>0</v>
       </c>
       <c r="R135" t="n">
-        <v>0</v>
+        <v>0.153061928718331</v>
       </c>
       <c r="S135" t="n">
-        <v>0</v>
+        <v>0.130773931169214</v>
       </c>
       <c r="T135" t="n">
-        <v>0.01647616077473</v>
+        <v>0.0691744355033127</v>
       </c>
       <c r="U135" t="n">
         <v>0</v>
       </c>
       <c r="V135" t="n">
-        <v>0</v>
+        <v>0.397405384534044</v>
       </c>
     </row>
     <row r="136">
@@ -10092,13 +10116,13 @@
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>0</v>
+        <v>0.205280533224252</v>
       </c>
       <c r="K136" t="n">
         <v>0</v>
       </c>
       <c r="L136" t="n">
-        <v>0.148987353673787</v>
+        <v>0</v>
       </c>
       <c r="M136" t="n">
         <v>0</v>
@@ -10107,13 +10131,13 @@
         <v>0</v>
       </c>
       <c r="O136" t="n">
-        <v>0</v>
+        <v>0.346241041923699</v>
       </c>
       <c r="P136" t="n">
         <v>0</v>
       </c>
       <c r="Q136" t="n">
-        <v>0</v>
+        <v>0.221465486240381</v>
       </c>
       <c r="R136" t="n">
         <v>0</v>
@@ -10142,10 +10166,10 @@
         <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>0.0510256354405912</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>0.416568359655289</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -10166,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="L137" t="n">
-        <v>0.121608659072408</v>
+        <v>0</v>
       </c>
       <c r="M137" t="n">
         <v>0</v>
@@ -10190,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="T137" t="n">
-        <v>0</v>
+        <v>0.000972734161180245</v>
       </c>
       <c r="U137" t="n">
         <v>0</v>
@@ -10210,10 +10234,10 @@
         <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>0.537327970469049</v>
+        <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>0.0371705983166658</v>
+        <v>0.316609385096738</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -10234,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="L138" t="n">
-        <v>0.0226288321038091</v>
+        <v>0</v>
       </c>
       <c r="M138" t="n">
         <v>0</v>
@@ -10258,7 +10282,7 @@
         <v>0</v>
       </c>
       <c r="T138" t="n">
-        <v>0</v>
+        <v>0.0821007688410584</v>
       </c>
       <c r="U138" t="n">
         <v>0</v>
@@ -10281,7 +10305,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>0.00429713121898262</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -10302,7 +10326,7 @@
         <v>0</v>
       </c>
       <c r="L139" t="n">
-        <v>0.0907710902420286</v>
+        <v>0</v>
       </c>
       <c r="M139" t="n">
         <v>0</v>
@@ -10326,13 +10350,13 @@
         <v>0</v>
       </c>
       <c r="T139" t="n">
-        <v>0</v>
+        <v>0.370912561026533</v>
       </c>
       <c r="U139" t="n">
         <v>0</v>
       </c>
       <c r="V139" t="n">
-        <v>0</v>
+        <v>0.0168527039627787</v>
       </c>
     </row>
     <row r="140">
@@ -10346,10 +10370,10 @@
         <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>0.104148767357792</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>0.244176373723934</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -10364,7 +10388,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>0.400816526533417</v>
+        <v>0</v>
       </c>
       <c r="K140" t="n">
         <v>0</v>
@@ -10379,7 +10403,7 @@
         <v>0</v>
       </c>
       <c r="O140" t="n">
-        <v>0</v>
+        <v>0.0115822425261819</v>
       </c>
       <c r="P140" t="n">
         <v>0</v>
@@ -10400,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="V140" t="n">
-        <v>0</v>
+        <v>0.0148800463985081</v>
       </c>
     </row>
     <row r="141">
@@ -10432,28 +10456,28 @@
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>0.0762864527879515</v>
+        <v>0</v>
       </c>
       <c r="K141" t="n">
         <v>0</v>
       </c>
       <c r="L141" t="n">
-        <v>0</v>
+        <v>0.298306236623279</v>
       </c>
       <c r="M141" t="n">
         <v>0</v>
       </c>
       <c r="N141" t="n">
-        <v>0</v>
+        <v>0.0357679641171139</v>
       </c>
       <c r="O141" t="n">
-        <v>0.149363342204945</v>
+        <v>0</v>
       </c>
       <c r="P141" t="n">
         <v>0</v>
       </c>
       <c r="Q141" t="n">
-        <v>0.138404569149975</v>
+        <v>0</v>
       </c>
       <c r="R141" t="n">
         <v>0</v>
@@ -10468,7 +10492,7 @@
         <v>0</v>
       </c>
       <c r="V141" t="n">
-        <v>0</v>
+        <v>0.0411354176346374</v>
       </c>
     </row>
     <row r="142">
@@ -10485,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>0.362175191607459</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -10506,7 +10530,7 @@
         <v>0</v>
       </c>
       <c r="L142" t="n">
-        <v>0.0718568941940117</v>
+        <v>0</v>
       </c>
       <c r="M142" t="n">
         <v>0</v>
@@ -10530,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="T142" t="n">
-        <v>0</v>
+        <v>0.0121641911083674</v>
       </c>
       <c r="U142" t="n">
         <v>0</v>
@@ -10556,7 +10580,7 @@
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>0.00681048254770452</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
@@ -10568,28 +10592,28 @@
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>0</v>
+        <v>0.0557812969053596</v>
       </c>
       <c r="K143" t="n">
         <v>0</v>
       </c>
       <c r="L143" t="n">
-        <v>0.0620648699682514</v>
+        <v>0</v>
       </c>
       <c r="M143" t="n">
-        <v>0</v>
+        <v>0.00774586256910872</v>
       </c>
       <c r="N143" t="n">
         <v>0</v>
       </c>
       <c r="O143" t="n">
-        <v>0</v>
+        <v>0.079787636904116</v>
       </c>
       <c r="P143" t="n">
         <v>0</v>
       </c>
       <c r="Q143" t="n">
-        <v>0</v>
+        <v>0.0778357009893666</v>
       </c>
       <c r="R143" t="n">
         <v>0</v>
@@ -10642,7 +10666,7 @@
         <v>0</v>
       </c>
       <c r="L144" t="n">
-        <v>0.0413359828634704</v>
+        <v>0.124604937260553</v>
       </c>
       <c r="M144" t="n">
         <v>0</v>
@@ -10707,10 +10731,10 @@
         <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>0.00344408561788114</v>
+        <v>0</v>
       </c>
       <c r="L145" t="n">
-        <v>0.035782297481696</v>
+        <v>0.101706882902528</v>
       </c>
       <c r="M145" t="n">
         <v>0</v>
@@ -10754,10 +10778,10 @@
         <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>0.0502894948502428</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>0.0173912197447504</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -10778,7 +10802,7 @@
         <v>0</v>
       </c>
       <c r="L146" t="n">
-        <v>0.038145049595872</v>
+        <v>0.0189255271339907</v>
       </c>
       <c r="M146" t="n">
         <v>0</v>
@@ -10846,7 +10870,7 @@
         <v>0</v>
       </c>
       <c r="L147" t="n">
-        <v>0</v>
+        <v>0.0759160138480262</v>
       </c>
       <c r="M147" t="n">
         <v>0</v>
@@ -10873,7 +10897,7 @@
         <v>0</v>
       </c>
       <c r="U147" t="n">
-        <v>0.0510725862276677</v>
+        <v>0</v>
       </c>
       <c r="V147" t="n">
         <v>0</v>
@@ -10890,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>0.253202472549081</v>
+        <v>0</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
@@ -10908,7 +10932,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>0</v>
+        <v>0.0726878441100888</v>
       </c>
       <c r="K148" t="n">
         <v>0</v>
@@ -10976,7 +11000,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>0</v>
+        <v>0.013834503871187</v>
       </c>
       <c r="K149" t="n">
         <v>0</v>
@@ -10991,13 +11015,13 @@
         <v>0</v>
       </c>
       <c r="O149" t="n">
-        <v>0.120318936290047</v>
+        <v>0.0278736352609627</v>
       </c>
       <c r="P149" t="n">
         <v>0</v>
       </c>
       <c r="Q149" t="n">
-        <v>0</v>
+        <v>0.021249310062423</v>
       </c>
       <c r="R149" t="n">
         <v>0</v>
@@ -11044,13 +11068,13 @@
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>0.119545760218377</v>
+        <v>0</v>
       </c>
       <c r="K150" t="n">
         <v>0</v>
       </c>
       <c r="L150" t="n">
-        <v>0</v>
+        <v>0.0600972067225754</v>
       </c>
       <c r="M150" t="n">
         <v>0</v>
@@ -11118,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="L151" t="n">
-        <v>0.0119599101861897</v>
+        <v>0.0519076890607194</v>
       </c>
       <c r="M151" t="n">
         <v>0</v>
@@ -11142,7 +11166,7 @@
         <v>0</v>
       </c>
       <c r="T151" t="n">
-        <v>0.00703598621707349</v>
+        <v>0</v>
       </c>
       <c r="U151" t="n">
         <v>0</v>
@@ -11186,7 +11210,7 @@
         <v>0</v>
       </c>
       <c r="L152" t="n">
-        <v>0.0151021269153516</v>
+        <v>0.0345711728163425</v>
       </c>
       <c r="M152" t="n">
         <v>0</v>
@@ -11251,16 +11275,16 @@
         <v>0</v>
       </c>
       <c r="K153" t="n">
-        <v>0</v>
+        <v>0.00198083551642083</v>
       </c>
       <c r="L153" t="n">
-        <v>0</v>
+        <v>0.0299263717543943</v>
       </c>
       <c r="M153" t="n">
         <v>0</v>
       </c>
       <c r="N153" t="n">
-        <v>0.0236672832889442</v>
+        <v>0</v>
       </c>
       <c r="O153" t="n">
         <v>0</v>
@@ -11304,7 +11328,7 @@
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>0.136748992475036</v>
+        <v>0</v>
       </c>
       <c r="G154" t="n">
         <v>0</v>
@@ -11322,7 +11346,7 @@
         <v>0</v>
       </c>
       <c r="L154" t="n">
-        <v>0</v>
+        <v>0.0319024493991705</v>
       </c>
       <c r="M154" t="n">
         <v>0</v>
@@ -11390,7 +11414,7 @@
         <v>0</v>
       </c>
       <c r="L155" t="n">
-        <v>0.00767285480376735</v>
+        <v>0</v>
       </c>
       <c r="M155" t="n">
         <v>0</v>
@@ -11417,7 +11441,7 @@
         <v>0</v>
       </c>
       <c r="U155" t="n">
-        <v>0</v>
+        <v>0.0290402601411817</v>
       </c>
       <c r="V155" t="n">
         <v>0</v>
@@ -11434,7 +11458,7 @@
         <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>0.0236976765386145</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
@@ -11458,7 +11482,7 @@
         <v>0</v>
       </c>
       <c r="L156" t="n">
-        <v>0.00634532913136951</v>
+        <v>0</v>
       </c>
       <c r="M156" t="n">
         <v>0</v>
@@ -11526,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="L157" t="n">
-        <v>0.00531010268959137</v>
+        <v>0</v>
       </c>
       <c r="M157" t="n">
         <v>0</v>
@@ -11535,7 +11559,7 @@
         <v>0</v>
       </c>
       <c r="O157" t="n">
-        <v>0</v>
+        <v>0.022453475502269</v>
       </c>
       <c r="P157" t="n">
         <v>0</v>
@@ -11588,13 +11612,13 @@
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>0</v>
+        <v>0.0216795541289912</v>
       </c>
       <c r="K158" t="n">
         <v>0</v>
       </c>
       <c r="L158" t="n">
-        <v>0.0048472955744435</v>
+        <v>0</v>
       </c>
       <c r="M158" t="n">
         <v>0</v>
@@ -11662,7 +11686,7 @@
         <v>0</v>
       </c>
       <c r="L159" t="n">
-        <v>0.00325182894064426</v>
+        <v>0.0100026198307744</v>
       </c>
       <c r="M159" t="n">
         <v>0</v>
@@ -11686,12 +11710,556 @@
         <v>0</v>
       </c>
       <c r="T159" t="n">
-        <v>0</v>
+        <v>0.00519460098444708</v>
       </c>
       <c r="U159" t="n">
         <v>0</v>
       </c>
       <c r="V159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>180</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0.0126305993789819</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R160" t="n">
+        <v>0</v>
+      </c>
+      <c r="S160" t="n">
+        <v>0</v>
+      </c>
+      <c r="T160" t="n">
+        <v>0</v>
+      </c>
+      <c r="U160" t="n">
+        <v>0</v>
+      </c>
+      <c r="V160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>181</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0.0106713265459959</v>
+      </c>
+      <c r="O161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R161" t="n">
+        <v>0</v>
+      </c>
+      <c r="S161" t="n">
+        <v>0</v>
+      </c>
+      <c r="T161" t="n">
+        <v>0</v>
+      </c>
+      <c r="U161" t="n">
+        <v>0</v>
+      </c>
+      <c r="V161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>182</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.00926103099065667</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0</v>
+      </c>
+      <c r="O162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R162" t="n">
+        <v>0</v>
+      </c>
+      <c r="S162" t="n">
+        <v>0</v>
+      </c>
+      <c r="T162" t="n">
+        <v>0</v>
+      </c>
+      <c r="U162" t="n">
+        <v>0</v>
+      </c>
+      <c r="V162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>183</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0.00641715936190212</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>0</v>
+      </c>
+      <c r="O163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R163" t="n">
+        <v>0</v>
+      </c>
+      <c r="S163" t="n">
+        <v>0</v>
+      </c>
+      <c r="T163" t="n">
+        <v>0</v>
+      </c>
+      <c r="U163" t="n">
+        <v>0</v>
+      </c>
+      <c r="V163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>184</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0.00530688893262064</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0</v>
+      </c>
+      <c r="O164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R164" t="n">
+        <v>0</v>
+      </c>
+      <c r="S164" t="n">
+        <v>0</v>
+      </c>
+      <c r="T164" t="n">
+        <v>0</v>
+      </c>
+      <c r="U164" t="n">
+        <v>0</v>
+      </c>
+      <c r="V164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>185</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0.00444108171712591</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0</v>
+      </c>
+      <c r="O165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R165" t="n">
+        <v>0</v>
+      </c>
+      <c r="S165" t="n">
+        <v>0</v>
+      </c>
+      <c r="T165" t="n">
+        <v>0</v>
+      </c>
+      <c r="U165" t="n">
+        <v>0</v>
+      </c>
+      <c r="V165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>186</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0.00405401496196356</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0</v>
+      </c>
+      <c r="O166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R166" t="n">
+        <v>0</v>
+      </c>
+      <c r="S166" t="n">
+        <v>0</v>
+      </c>
+      <c r="T166" t="n">
+        <v>0</v>
+      </c>
+      <c r="U166" t="n">
+        <v>0</v>
+      </c>
+      <c r="V166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>187</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0.00271965325337757</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0</v>
+      </c>
+      <c r="O167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R167" t="n">
+        <v>0</v>
+      </c>
+      <c r="S167" t="n">
+        <v>0</v>
+      </c>
+      <c r="T167" t="n">
+        <v>0</v>
+      </c>
+      <c r="U167" t="n">
+        <v>0</v>
+      </c>
+      <c r="V167" t="n">
         <v>0</v>
       </c>
     </row>
